--- a/biology/Biochimie/Amidon_résistant/Amidon_résistant.xlsx
+++ b/biology/Biochimie/Amidon_résistant/Amidon_résistant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amidon_r%C3%A9sistant</t>
+          <t>Amidon_résistant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amidon résistant (AR) est une forme d'amidon qui n'est pas digéré dans l'intestin grêle. Cet amidon qui parvient intact dans le gros intestin est considéré, d'un point de vue diététique, comme une forme de fibre alimentaire, dont il présente certains des avantages. 
 Certains glucides, tels que les sucres et la plus grande partie de l'amidon, sont rapidement digérés et absorbés par l'organisme, au niveau de l'intestin grêle, sous forme de glucose.
